--- a/packages/windmill/external-bin/janitor/29-09-2024-event-import.xlsx
+++ b/packages/windmill/external-bin/janitor/29-09-2024-event-import.xlsx
@@ -114,7 +114,7 @@
     <t>miru area threshold</t>
   </si>
   <si>
-    <t xml:space="preserve"> miru area station id</t>
+    <t>miru area station id</t>
   </si>
   <si>
     <t>miru area trustee users</t>

--- a/packages/windmill/external-bin/janitor/29-09-2024-event-import.xlsx
+++ b/packages/windmill/external-bin/janitor/29-09-2024-event-import.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -48,10 +48,16 @@
     <t>miru election name</t>
   </si>
   <si>
+    <t>election post</t>
+  </si>
+  <si>
     <t>General Election</t>
   </si>
   <si>
     <t>UNITED STATES - General Election</t>
+  </si>
+  <si>
+    <t>BANGKOK PE</t>
   </si>
   <si>
     <t>election name</t>
@@ -523,22 +529,28 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -568,30 +580,30 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>399000.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -628,87 +640,87 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>9.900110016E9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>9.900030013E9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1">
         <v>109.0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -740,21 +752,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
@@ -763,7 +775,7 @@
         <v>7.0080001E7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -788,36 +800,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1">
         <v>9701.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/packages/windmill/external-bin/janitor/29-09-2024-event-import.xlsx
+++ b/packages/windmill/external-bin/janitor/29-09-2024-event-import.xlsx
@@ -8,7 +8,7 @@
     <sheet state="visible" name="Contests" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Candidates" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Areas" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="CssServers" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="CcsServers" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -24,13 +24,13 @@
     <t>description</t>
   </si>
   <si>
-    <t>miru election event id</t>
-  </si>
-  <si>
-    <t>miru election event name</t>
-  </si>
-  <si>
-    <t>logo url</t>
+    <t>annotations.miru_election_event_id</t>
+  </si>
+  <si>
+    <t>annotations.miru_election_event_name</t>
+  </si>
+  <si>
+    <t>logo_url</t>
   </si>
   <si>
     <t>SF Demo day 2</t>
@@ -39,16 +39,19 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/73/Commission_on_Elections_%28COMELEC%29.svg/1280px-Commission_on_Elections_%28COMELEC%29.svg.png</t>
   </si>
   <si>
+    <t>election_post</t>
+  </si>
+  <si>
     <t>alias</t>
   </si>
   <si>
-    <t>miru election id</t>
-  </si>
-  <si>
-    <t>miru election name</t>
-  </si>
-  <si>
-    <t>election post</t>
+    <t>annotations.miru_election_id</t>
+  </si>
+  <si>
+    <t>annotations.miru_election_name</t>
+  </si>
+  <si>
+    <t>BANGKOK PE</t>
   </si>
   <si>
     <t>General Election</t>
@@ -57,16 +60,13 @@
     <t>UNITED STATES - General Election</t>
   </si>
   <si>
-    <t>BANGKOK PE</t>
-  </si>
-  <si>
-    <t>election name</t>
-  </si>
-  <si>
-    <t>miru contest id</t>
-  </si>
-  <si>
-    <t>miru contest name</t>
+    <t>election_name</t>
+  </si>
+  <si>
+    <t>annotations.miru_contest_id</t>
+  </si>
+  <si>
+    <t>annotations.miru_contest_name</t>
   </si>
   <si>
     <t>SENATOR / Vote for 12</t>
@@ -75,25 +75,25 @@
     <t>BANGKOK PE - SENATOR / Vote for 12</t>
   </si>
   <si>
-    <t>contest name</t>
-  </si>
-  <si>
-    <t>miru candidate id</t>
-  </si>
-  <si>
-    <t>miru candidate name</t>
-  </si>
-  <si>
-    <t>miru candidate setting</t>
-  </si>
-  <si>
-    <t>miru candidate affiliation id</t>
-  </si>
-  <si>
-    <t>miru candidate affiliation party</t>
-  </si>
-  <si>
-    <t>miru candidate affiliation registered name</t>
+    <t>contest_name</t>
+  </si>
+  <si>
+    <t>annotations.miru_candidate_id</t>
+  </si>
+  <si>
+    <t>annotations.miru_candidate_name</t>
+  </si>
+  <si>
+    <t>annotations.miru_candidate_setting</t>
+  </si>
+  <si>
+    <t>annotations.miru_candidate_affiliation_id</t>
+  </si>
+  <si>
+    <t>annotations.miru_candidate_affiliation_party</t>
+  </si>
+  <si>
+    <t>annotations.miru_candidate_affiliation_registered_name</t>
   </si>
   <si>
     <t>16 PINK</t>
@@ -117,13 +117,16 @@
     <t>HUGPONG SA TAWONG LUNGSOD</t>
   </si>
   <si>
-    <t>miru area threshold</t>
-  </si>
-  <si>
-    <t>miru area station id</t>
-  </si>
-  <si>
-    <t>miru area trustee users</t>
+    <t>annotations.miru_threshold</t>
+  </si>
+  <si>
+    <t>annotations.miru_station_id</t>
+  </si>
+  <si>
+    <t>annotations.miru_trustee_servers</t>
+  </si>
+  <si>
+    <t>annotations.miru_ccs_server_tags</t>
   </si>
   <si>
     <t>SAN FRANCISCO PE</t>
@@ -135,19 +138,16 @@
     <t>trustee1,trustee2</t>
   </si>
   <si>
-    <t>area name</t>
-  </si>
-  <si>
-    <t>server name</t>
-  </si>
-  <si>
     <t>tag</t>
   </si>
   <si>
     <t>address</t>
   </si>
   <si>
-    <t>public key</t>
+    <t>public_key</t>
+  </si>
+  <si>
+    <t>send_logs</t>
   </si>
   <si>
     <t>CCS 9701 server</t>
@@ -163,10 +163,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -180,6 +186,7 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -187,13 +194,30 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,24 +226,40 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,41 +497,62 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="18.13"/>
-    <col customWidth="1" min="4" max="4" width="26.88"/>
+    <col customWidth="1" min="3" max="3" width="30.88"/>
+    <col customWidth="1" min="4" max="4" width="32.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>11.0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -512,45 +573,69 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="27.88"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4">
         <v>1.0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -570,6 +655,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="19.13"/>
     <col customWidth="1" min="2" max="2" width="31.13"/>
+    <col customWidth="1" min="4" max="4" width="24.25"/>
+    <col customWidth="1" min="5" max="5" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -577,32 +664,53 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>399000.0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -624,10 +732,10 @@
     <col customWidth="1" min="2" max="2" width="14.13"/>
     <col customWidth="1" min="3" max="3" width="17.38"/>
     <col customWidth="1" min="4" max="4" width="18.25"/>
-    <col customWidth="1" min="5" max="5" width="21.5"/>
-    <col customWidth="1" min="6" max="6" width="24.13"/>
-    <col customWidth="1" min="7" max="7" width="33.5"/>
-    <col customWidth="1" min="8" max="8" width="25.38"/>
+    <col customWidth="1" min="5" max="5" width="27.88"/>
+    <col customWidth="1" min="6" max="6" width="28.25"/>
+    <col customWidth="1" min="7" max="7" width="29.88"/>
+    <col customWidth="1" min="8" max="8" width="33.25"/>
     <col customWidth="1" min="9" max="9" width="25.0"/>
     <col customWidth="1" min="10" max="10" width="31.88"/>
   </cols>
@@ -637,89 +745,105 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4">
         <v>9.900110016E9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="L2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4">
         <v>9.900030013E9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="4">
         <v>109.0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -740,42 +864,70 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="20.38"/>
     <col customWidth="1" min="2" max="2" width="15.88"/>
-    <col customWidth="1" min="3" max="3" width="16.63"/>
-    <col customWidth="1" min="4" max="4" width="19.25"/>
+    <col customWidth="1" min="3" max="3" width="25.13"/>
+    <col customWidth="1" min="4" max="4" width="28.5"/>
+    <col customWidth="1" min="5" max="5" width="35.5"/>
+    <col customWidth="1" min="6" max="6" width="28.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4">
         <v>1.0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>7.0080001E7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4">
+        <v>9701.0</v>
       </c>
     </row>
   </sheetData>
@@ -793,48 +945,3061 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.0"/>
-    <col customWidth="1" min="2" max="2" width="15.5"/>
-    <col customWidth="1" min="4" max="4" width="21.38"/>
+    <col customWidth="1" min="1" max="1" width="15.5"/>
+    <col customWidth="1" min="3" max="3" width="21.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="4">
         <v>9701.0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61">
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62">
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63">
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64">
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65">
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66">
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67">
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68">
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69">
+      <c r="D69" s="11"/>
+    </row>
+    <row r="70">
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71">
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72">
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73">
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74">
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75">
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76">
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77">
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78">
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79">
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80">
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81">
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82">
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83">
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84">
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85">
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86">
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87">
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88">
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89">
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90">
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91">
+      <c r="D91" s="11"/>
+    </row>
+    <row r="92">
+      <c r="D92" s="11"/>
+    </row>
+    <row r="93">
+      <c r="D93" s="11"/>
+    </row>
+    <row r="94">
+      <c r="D94" s="11"/>
+    </row>
+    <row r="95">
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96">
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97">
+      <c r="D97" s="11"/>
+    </row>
+    <row r="98">
+      <c r="D98" s="11"/>
+    </row>
+    <row r="99">
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100">
+      <c r="D100" s="11"/>
+    </row>
+    <row r="101">
+      <c r="D101" s="11"/>
+    </row>
+    <row r="102">
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103">
+      <c r="D103" s="11"/>
+    </row>
+    <row r="104">
+      <c r="D104" s="11"/>
+    </row>
+    <row r="105">
+      <c r="D105" s="11"/>
+    </row>
+    <row r="106">
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107">
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108">
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109">
+      <c r="D109" s="11"/>
+    </row>
+    <row r="110">
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111">
+      <c r="D111" s="11"/>
+    </row>
+    <row r="112">
+      <c r="D112" s="11"/>
+    </row>
+    <row r="113">
+      <c r="D113" s="11"/>
+    </row>
+    <row r="114">
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115">
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116">
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117">
+      <c r="D117" s="11"/>
+    </row>
+    <row r="118">
+      <c r="D118" s="11"/>
+    </row>
+    <row r="119">
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120">
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121">
+      <c r="D121" s="11"/>
+    </row>
+    <row r="122">
+      <c r="D122" s="11"/>
+    </row>
+    <row r="123">
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124">
+      <c r="D124" s="11"/>
+    </row>
+    <row r="125">
+      <c r="D125" s="11"/>
+    </row>
+    <row r="126">
+      <c r="D126" s="11"/>
+    </row>
+    <row r="127">
+      <c r="D127" s="11"/>
+    </row>
+    <row r="128">
+      <c r="D128" s="11"/>
+    </row>
+    <row r="129">
+      <c r="D129" s="11"/>
+    </row>
+    <row r="130">
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131">
+      <c r="D131" s="11"/>
+    </row>
+    <row r="132">
+      <c r="D132" s="11"/>
+    </row>
+    <row r="133">
+      <c r="D133" s="11"/>
+    </row>
+    <row r="134">
+      <c r="D134" s="11"/>
+    </row>
+    <row r="135">
+      <c r="D135" s="11"/>
+    </row>
+    <row r="136">
+      <c r="D136" s="11"/>
+    </row>
+    <row r="137">
+      <c r="D137" s="11"/>
+    </row>
+    <row r="138">
+      <c r="D138" s="11"/>
+    </row>
+    <row r="139">
+      <c r="D139" s="11"/>
+    </row>
+    <row r="140">
+      <c r="D140" s="11"/>
+    </row>
+    <row r="141">
+      <c r="D141" s="11"/>
+    </row>
+    <row r="142">
+      <c r="D142" s="11"/>
+    </row>
+    <row r="143">
+      <c r="D143" s="11"/>
+    </row>
+    <row r="144">
+      <c r="D144" s="11"/>
+    </row>
+    <row r="145">
+      <c r="D145" s="11"/>
+    </row>
+    <row r="146">
+      <c r="D146" s="11"/>
+    </row>
+    <row r="147">
+      <c r="D147" s="11"/>
+    </row>
+    <row r="148">
+      <c r="D148" s="11"/>
+    </row>
+    <row r="149">
+      <c r="D149" s="11"/>
+    </row>
+    <row r="150">
+      <c r="D150" s="11"/>
+    </row>
+    <row r="151">
+      <c r="D151" s="11"/>
+    </row>
+    <row r="152">
+      <c r="D152" s="11"/>
+    </row>
+    <row r="153">
+      <c r="D153" s="11"/>
+    </row>
+    <row r="154">
+      <c r="D154" s="11"/>
+    </row>
+    <row r="155">
+      <c r="D155" s="11"/>
+    </row>
+    <row r="156">
+      <c r="D156" s="11"/>
+    </row>
+    <row r="157">
+      <c r="D157" s="11"/>
+    </row>
+    <row r="158">
+      <c r="D158" s="11"/>
+    </row>
+    <row r="159">
+      <c r="D159" s="11"/>
+    </row>
+    <row r="160">
+      <c r="D160" s="11"/>
+    </row>
+    <row r="161">
+      <c r="D161" s="11"/>
+    </row>
+    <row r="162">
+      <c r="D162" s="11"/>
+    </row>
+    <row r="163">
+      <c r="D163" s="11"/>
+    </row>
+    <row r="164">
+      <c r="D164" s="11"/>
+    </row>
+    <row r="165">
+      <c r="D165" s="11"/>
+    </row>
+    <row r="166">
+      <c r="D166" s="11"/>
+    </row>
+    <row r="167">
+      <c r="D167" s="11"/>
+    </row>
+    <row r="168">
+      <c r="D168" s="11"/>
+    </row>
+    <row r="169">
+      <c r="D169" s="11"/>
+    </row>
+    <row r="170">
+      <c r="D170" s="11"/>
+    </row>
+    <row r="171">
+      <c r="D171" s="11"/>
+    </row>
+    <row r="172">
+      <c r="D172" s="11"/>
+    </row>
+    <row r="173">
+      <c r="D173" s="11"/>
+    </row>
+    <row r="174">
+      <c r="D174" s="11"/>
+    </row>
+    <row r="175">
+      <c r="D175" s="11"/>
+    </row>
+    <row r="176">
+      <c r="D176" s="11"/>
+    </row>
+    <row r="177">
+      <c r="D177" s="11"/>
+    </row>
+    <row r="178">
+      <c r="D178" s="11"/>
+    </row>
+    <row r="179">
+      <c r="D179" s="11"/>
+    </row>
+    <row r="180">
+      <c r="D180" s="11"/>
+    </row>
+    <row r="181">
+      <c r="D181" s="11"/>
+    </row>
+    <row r="182">
+      <c r="D182" s="11"/>
+    </row>
+    <row r="183">
+      <c r="D183" s="11"/>
+    </row>
+    <row r="184">
+      <c r="D184" s="11"/>
+    </row>
+    <row r="185">
+      <c r="D185" s="11"/>
+    </row>
+    <row r="186">
+      <c r="D186" s="11"/>
+    </row>
+    <row r="187">
+      <c r="D187" s="11"/>
+    </row>
+    <row r="188">
+      <c r="D188" s="11"/>
+    </row>
+    <row r="189">
+      <c r="D189" s="11"/>
+    </row>
+    <row r="190">
+      <c r="D190" s="11"/>
+    </row>
+    <row r="191">
+      <c r="D191" s="11"/>
+    </row>
+    <row r="192">
+      <c r="D192" s="11"/>
+    </row>
+    <row r="193">
+      <c r="D193" s="11"/>
+    </row>
+    <row r="194">
+      <c r="D194" s="11"/>
+    </row>
+    <row r="195">
+      <c r="D195" s="11"/>
+    </row>
+    <row r="196">
+      <c r="D196" s="11"/>
+    </row>
+    <row r="197">
+      <c r="D197" s="11"/>
+    </row>
+    <row r="198">
+      <c r="D198" s="11"/>
+    </row>
+    <row r="199">
+      <c r="D199" s="11"/>
+    </row>
+    <row r="200">
+      <c r="D200" s="11"/>
+    </row>
+    <row r="201">
+      <c r="D201" s="11"/>
+    </row>
+    <row r="202">
+      <c r="D202" s="11"/>
+    </row>
+    <row r="203">
+      <c r="D203" s="11"/>
+    </row>
+    <row r="204">
+      <c r="D204" s="11"/>
+    </row>
+    <row r="205">
+      <c r="D205" s="11"/>
+    </row>
+    <row r="206">
+      <c r="D206" s="11"/>
+    </row>
+    <row r="207">
+      <c r="D207" s="11"/>
+    </row>
+    <row r="208">
+      <c r="D208" s="11"/>
+    </row>
+    <row r="209">
+      <c r="D209" s="11"/>
+    </row>
+    <row r="210">
+      <c r="D210" s="11"/>
+    </row>
+    <row r="211">
+      <c r="D211" s="11"/>
+    </row>
+    <row r="212">
+      <c r="D212" s="11"/>
+    </row>
+    <row r="213">
+      <c r="D213" s="11"/>
+    </row>
+    <row r="214">
+      <c r="D214" s="11"/>
+    </row>
+    <row r="215">
+      <c r="D215" s="11"/>
+    </row>
+    <row r="216">
+      <c r="D216" s="11"/>
+    </row>
+    <row r="217">
+      <c r="D217" s="11"/>
+    </row>
+    <row r="218">
+      <c r="D218" s="11"/>
+    </row>
+    <row r="219">
+      <c r="D219" s="11"/>
+    </row>
+    <row r="220">
+      <c r="D220" s="11"/>
+    </row>
+    <row r="221">
+      <c r="D221" s="11"/>
+    </row>
+    <row r="222">
+      <c r="D222" s="11"/>
+    </row>
+    <row r="223">
+      <c r="D223" s="11"/>
+    </row>
+    <row r="224">
+      <c r="D224" s="11"/>
+    </row>
+    <row r="225">
+      <c r="D225" s="11"/>
+    </row>
+    <row r="226">
+      <c r="D226" s="11"/>
+    </row>
+    <row r="227">
+      <c r="D227" s="11"/>
+    </row>
+    <row r="228">
+      <c r="D228" s="11"/>
+    </row>
+    <row r="229">
+      <c r="D229" s="11"/>
+    </row>
+    <row r="230">
+      <c r="D230" s="11"/>
+    </row>
+    <row r="231">
+      <c r="D231" s="11"/>
+    </row>
+    <row r="232">
+      <c r="D232" s="11"/>
+    </row>
+    <row r="233">
+      <c r="D233" s="11"/>
+    </row>
+    <row r="234">
+      <c r="D234" s="11"/>
+    </row>
+    <row r="235">
+      <c r="D235" s="11"/>
+    </row>
+    <row r="236">
+      <c r="D236" s="11"/>
+    </row>
+    <row r="237">
+      <c r="D237" s="11"/>
+    </row>
+    <row r="238">
+      <c r="D238" s="11"/>
+    </row>
+    <row r="239">
+      <c r="D239" s="11"/>
+    </row>
+    <row r="240">
+      <c r="D240" s="11"/>
+    </row>
+    <row r="241">
+      <c r="D241" s="11"/>
+    </row>
+    <row r="242">
+      <c r="D242" s="11"/>
+    </row>
+    <row r="243">
+      <c r="D243" s="11"/>
+    </row>
+    <row r="244">
+      <c r="D244" s="11"/>
+    </row>
+    <row r="245">
+      <c r="D245" s="11"/>
+    </row>
+    <row r="246">
+      <c r="D246" s="11"/>
+    </row>
+    <row r="247">
+      <c r="D247" s="11"/>
+    </row>
+    <row r="248">
+      <c r="D248" s="11"/>
+    </row>
+    <row r="249">
+      <c r="D249" s="11"/>
+    </row>
+    <row r="250">
+      <c r="D250" s="11"/>
+    </row>
+    <row r="251">
+      <c r="D251" s="11"/>
+    </row>
+    <row r="252">
+      <c r="D252" s="11"/>
+    </row>
+    <row r="253">
+      <c r="D253" s="11"/>
+    </row>
+    <row r="254">
+      <c r="D254" s="11"/>
+    </row>
+    <row r="255">
+      <c r="D255" s="11"/>
+    </row>
+    <row r="256">
+      <c r="D256" s="11"/>
+    </row>
+    <row r="257">
+      <c r="D257" s="11"/>
+    </row>
+    <row r="258">
+      <c r="D258" s="11"/>
+    </row>
+    <row r="259">
+      <c r="D259" s="11"/>
+    </row>
+    <row r="260">
+      <c r="D260" s="11"/>
+    </row>
+    <row r="261">
+      <c r="D261" s="11"/>
+    </row>
+    <row r="262">
+      <c r="D262" s="11"/>
+    </row>
+    <row r="263">
+      <c r="D263" s="11"/>
+    </row>
+    <row r="264">
+      <c r="D264" s="11"/>
+    </row>
+    <row r="265">
+      <c r="D265" s="11"/>
+    </row>
+    <row r="266">
+      <c r="D266" s="11"/>
+    </row>
+    <row r="267">
+      <c r="D267" s="11"/>
+    </row>
+    <row r="268">
+      <c r="D268" s="11"/>
+    </row>
+    <row r="269">
+      <c r="D269" s="11"/>
+    </row>
+    <row r="270">
+      <c r="D270" s="11"/>
+    </row>
+    <row r="271">
+      <c r="D271" s="11"/>
+    </row>
+    <row r="272">
+      <c r="D272" s="11"/>
+    </row>
+    <row r="273">
+      <c r="D273" s="11"/>
+    </row>
+    <row r="274">
+      <c r="D274" s="11"/>
+    </row>
+    <row r="275">
+      <c r="D275" s="11"/>
+    </row>
+    <row r="276">
+      <c r="D276" s="11"/>
+    </row>
+    <row r="277">
+      <c r="D277" s="11"/>
+    </row>
+    <row r="278">
+      <c r="D278" s="11"/>
+    </row>
+    <row r="279">
+      <c r="D279" s="11"/>
+    </row>
+    <row r="280">
+      <c r="D280" s="11"/>
+    </row>
+    <row r="281">
+      <c r="D281" s="11"/>
+    </row>
+    <row r="282">
+      <c r="D282" s="11"/>
+    </row>
+    <row r="283">
+      <c r="D283" s="11"/>
+    </row>
+    <row r="284">
+      <c r="D284" s="11"/>
+    </row>
+    <row r="285">
+      <c r="D285" s="11"/>
+    </row>
+    <row r="286">
+      <c r="D286" s="11"/>
+    </row>
+    <row r="287">
+      <c r="D287" s="11"/>
+    </row>
+    <row r="288">
+      <c r="D288" s="11"/>
+    </row>
+    <row r="289">
+      <c r="D289" s="11"/>
+    </row>
+    <row r="290">
+      <c r="D290" s="11"/>
+    </row>
+    <row r="291">
+      <c r="D291" s="11"/>
+    </row>
+    <row r="292">
+      <c r="D292" s="11"/>
+    </row>
+    <row r="293">
+      <c r="D293" s="11"/>
+    </row>
+    <row r="294">
+      <c r="D294" s="11"/>
+    </row>
+    <row r="295">
+      <c r="D295" s="11"/>
+    </row>
+    <row r="296">
+      <c r="D296" s="11"/>
+    </row>
+    <row r="297">
+      <c r="D297" s="11"/>
+    </row>
+    <row r="298">
+      <c r="D298" s="11"/>
+    </row>
+    <row r="299">
+      <c r="D299" s="11"/>
+    </row>
+    <row r="300">
+      <c r="D300" s="11"/>
+    </row>
+    <row r="301">
+      <c r="D301" s="11"/>
+    </row>
+    <row r="302">
+      <c r="D302" s="11"/>
+    </row>
+    <row r="303">
+      <c r="D303" s="11"/>
+    </row>
+    <row r="304">
+      <c r="D304" s="11"/>
+    </row>
+    <row r="305">
+      <c r="D305" s="11"/>
+    </row>
+    <row r="306">
+      <c r="D306" s="11"/>
+    </row>
+    <row r="307">
+      <c r="D307" s="11"/>
+    </row>
+    <row r="308">
+      <c r="D308" s="11"/>
+    </row>
+    <row r="309">
+      <c r="D309" s="11"/>
+    </row>
+    <row r="310">
+      <c r="D310" s="11"/>
+    </row>
+    <row r="311">
+      <c r="D311" s="11"/>
+    </row>
+    <row r="312">
+      <c r="D312" s="11"/>
+    </row>
+    <row r="313">
+      <c r="D313" s="11"/>
+    </row>
+    <row r="314">
+      <c r="D314" s="11"/>
+    </row>
+    <row r="315">
+      <c r="D315" s="11"/>
+    </row>
+    <row r="316">
+      <c r="D316" s="11"/>
+    </row>
+    <row r="317">
+      <c r="D317" s="11"/>
+    </row>
+    <row r="318">
+      <c r="D318" s="11"/>
+    </row>
+    <row r="319">
+      <c r="D319" s="11"/>
+    </row>
+    <row r="320">
+      <c r="D320" s="11"/>
+    </row>
+    <row r="321">
+      <c r="D321" s="11"/>
+    </row>
+    <row r="322">
+      <c r="D322" s="11"/>
+    </row>
+    <row r="323">
+      <c r="D323" s="11"/>
+    </row>
+    <row r="324">
+      <c r="D324" s="11"/>
+    </row>
+    <row r="325">
+      <c r="D325" s="11"/>
+    </row>
+    <row r="326">
+      <c r="D326" s="11"/>
+    </row>
+    <row r="327">
+      <c r="D327" s="11"/>
+    </row>
+    <row r="328">
+      <c r="D328" s="11"/>
+    </row>
+    <row r="329">
+      <c r="D329" s="11"/>
+    </row>
+    <row r="330">
+      <c r="D330" s="11"/>
+    </row>
+    <row r="331">
+      <c r="D331" s="11"/>
+    </row>
+    <row r="332">
+      <c r="D332" s="11"/>
+    </row>
+    <row r="333">
+      <c r="D333" s="11"/>
+    </row>
+    <row r="334">
+      <c r="D334" s="11"/>
+    </row>
+    <row r="335">
+      <c r="D335" s="11"/>
+    </row>
+    <row r="336">
+      <c r="D336" s="11"/>
+    </row>
+    <row r="337">
+      <c r="D337" s="11"/>
+    </row>
+    <row r="338">
+      <c r="D338" s="11"/>
+    </row>
+    <row r="339">
+      <c r="D339" s="11"/>
+    </row>
+    <row r="340">
+      <c r="D340" s="11"/>
+    </row>
+    <row r="341">
+      <c r="D341" s="11"/>
+    </row>
+    <row r="342">
+      <c r="D342" s="11"/>
+    </row>
+    <row r="343">
+      <c r="D343" s="11"/>
+    </row>
+    <row r="344">
+      <c r="D344" s="11"/>
+    </row>
+    <row r="345">
+      <c r="D345" s="11"/>
+    </row>
+    <row r="346">
+      <c r="D346" s="11"/>
+    </row>
+    <row r="347">
+      <c r="D347" s="11"/>
+    </row>
+    <row r="348">
+      <c r="D348" s="11"/>
+    </row>
+    <row r="349">
+      <c r="D349" s="11"/>
+    </row>
+    <row r="350">
+      <c r="D350" s="11"/>
+    </row>
+    <row r="351">
+      <c r="D351" s="11"/>
+    </row>
+    <row r="352">
+      <c r="D352" s="11"/>
+    </row>
+    <row r="353">
+      <c r="D353" s="11"/>
+    </row>
+    <row r="354">
+      <c r="D354" s="11"/>
+    </row>
+    <row r="355">
+      <c r="D355" s="11"/>
+    </row>
+    <row r="356">
+      <c r="D356" s="11"/>
+    </row>
+    <row r="357">
+      <c r="D357" s="11"/>
+    </row>
+    <row r="358">
+      <c r="D358" s="11"/>
+    </row>
+    <row r="359">
+      <c r="D359" s="11"/>
+    </row>
+    <row r="360">
+      <c r="D360" s="11"/>
+    </row>
+    <row r="361">
+      <c r="D361" s="11"/>
+    </row>
+    <row r="362">
+      <c r="D362" s="11"/>
+    </row>
+    <row r="363">
+      <c r="D363" s="11"/>
+    </row>
+    <row r="364">
+      <c r="D364" s="11"/>
+    </row>
+    <row r="365">
+      <c r="D365" s="11"/>
+    </row>
+    <row r="366">
+      <c r="D366" s="11"/>
+    </row>
+    <row r="367">
+      <c r="D367" s="11"/>
+    </row>
+    <row r="368">
+      <c r="D368" s="11"/>
+    </row>
+    <row r="369">
+      <c r="D369" s="11"/>
+    </row>
+    <row r="370">
+      <c r="D370" s="11"/>
+    </row>
+    <row r="371">
+      <c r="D371" s="11"/>
+    </row>
+    <row r="372">
+      <c r="D372" s="11"/>
+    </row>
+    <row r="373">
+      <c r="D373" s="11"/>
+    </row>
+    <row r="374">
+      <c r="D374" s="11"/>
+    </row>
+    <row r="375">
+      <c r="D375" s="11"/>
+    </row>
+    <row r="376">
+      <c r="D376" s="11"/>
+    </row>
+    <row r="377">
+      <c r="D377" s="11"/>
+    </row>
+    <row r="378">
+      <c r="D378" s="11"/>
+    </row>
+    <row r="379">
+      <c r="D379" s="11"/>
+    </row>
+    <row r="380">
+      <c r="D380" s="11"/>
+    </row>
+    <row r="381">
+      <c r="D381" s="11"/>
+    </row>
+    <row r="382">
+      <c r="D382" s="11"/>
+    </row>
+    <row r="383">
+      <c r="D383" s="11"/>
+    </row>
+    <row r="384">
+      <c r="D384" s="11"/>
+    </row>
+    <row r="385">
+      <c r="D385" s="11"/>
+    </row>
+    <row r="386">
+      <c r="D386" s="11"/>
+    </row>
+    <row r="387">
+      <c r="D387" s="11"/>
+    </row>
+    <row r="388">
+      <c r="D388" s="11"/>
+    </row>
+    <row r="389">
+      <c r="D389" s="11"/>
+    </row>
+    <row r="390">
+      <c r="D390" s="11"/>
+    </row>
+    <row r="391">
+      <c r="D391" s="11"/>
+    </row>
+    <row r="392">
+      <c r="D392" s="11"/>
+    </row>
+    <row r="393">
+      <c r="D393" s="11"/>
+    </row>
+    <row r="394">
+      <c r="D394" s="11"/>
+    </row>
+    <row r="395">
+      <c r="D395" s="11"/>
+    </row>
+    <row r="396">
+      <c r="D396" s="11"/>
+    </row>
+    <row r="397">
+      <c r="D397" s="11"/>
+    </row>
+    <row r="398">
+      <c r="D398" s="11"/>
+    </row>
+    <row r="399">
+      <c r="D399" s="11"/>
+    </row>
+    <row r="400">
+      <c r="D400" s="11"/>
+    </row>
+    <row r="401">
+      <c r="D401" s="11"/>
+    </row>
+    <row r="402">
+      <c r="D402" s="11"/>
+    </row>
+    <row r="403">
+      <c r="D403" s="11"/>
+    </row>
+    <row r="404">
+      <c r="D404" s="11"/>
+    </row>
+    <row r="405">
+      <c r="D405" s="11"/>
+    </row>
+    <row r="406">
+      <c r="D406" s="11"/>
+    </row>
+    <row r="407">
+      <c r="D407" s="11"/>
+    </row>
+    <row r="408">
+      <c r="D408" s="11"/>
+    </row>
+    <row r="409">
+      <c r="D409" s="11"/>
+    </row>
+    <row r="410">
+      <c r="D410" s="11"/>
+    </row>
+    <row r="411">
+      <c r="D411" s="11"/>
+    </row>
+    <row r="412">
+      <c r="D412" s="11"/>
+    </row>
+    <row r="413">
+      <c r="D413" s="11"/>
+    </row>
+    <row r="414">
+      <c r="D414" s="11"/>
+    </row>
+    <row r="415">
+      <c r="D415" s="11"/>
+    </row>
+    <row r="416">
+      <c r="D416" s="11"/>
+    </row>
+    <row r="417">
+      <c r="D417" s="11"/>
+    </row>
+    <row r="418">
+      <c r="D418" s="11"/>
+    </row>
+    <row r="419">
+      <c r="D419" s="11"/>
+    </row>
+    <row r="420">
+      <c r="D420" s="11"/>
+    </row>
+    <row r="421">
+      <c r="D421" s="11"/>
+    </row>
+    <row r="422">
+      <c r="D422" s="11"/>
+    </row>
+    <row r="423">
+      <c r="D423" s="11"/>
+    </row>
+    <row r="424">
+      <c r="D424" s="11"/>
+    </row>
+    <row r="425">
+      <c r="D425" s="11"/>
+    </row>
+    <row r="426">
+      <c r="D426" s="11"/>
+    </row>
+    <row r="427">
+      <c r="D427" s="11"/>
+    </row>
+    <row r="428">
+      <c r="D428" s="11"/>
+    </row>
+    <row r="429">
+      <c r="D429" s="11"/>
+    </row>
+    <row r="430">
+      <c r="D430" s="11"/>
+    </row>
+    <row r="431">
+      <c r="D431" s="11"/>
+    </row>
+    <row r="432">
+      <c r="D432" s="11"/>
+    </row>
+    <row r="433">
+      <c r="D433" s="11"/>
+    </row>
+    <row r="434">
+      <c r="D434" s="11"/>
+    </row>
+    <row r="435">
+      <c r="D435" s="11"/>
+    </row>
+    <row r="436">
+      <c r="D436" s="11"/>
+    </row>
+    <row r="437">
+      <c r="D437" s="11"/>
+    </row>
+    <row r="438">
+      <c r="D438" s="11"/>
+    </row>
+    <row r="439">
+      <c r="D439" s="11"/>
+    </row>
+    <row r="440">
+      <c r="D440" s="11"/>
+    </row>
+    <row r="441">
+      <c r="D441" s="11"/>
+    </row>
+    <row r="442">
+      <c r="D442" s="11"/>
+    </row>
+    <row r="443">
+      <c r="D443" s="11"/>
+    </row>
+    <row r="444">
+      <c r="D444" s="11"/>
+    </row>
+    <row r="445">
+      <c r="D445" s="11"/>
+    </row>
+    <row r="446">
+      <c r="D446" s="11"/>
+    </row>
+    <row r="447">
+      <c r="D447" s="11"/>
+    </row>
+    <row r="448">
+      <c r="D448" s="11"/>
+    </row>
+    <row r="449">
+      <c r="D449" s="11"/>
+    </row>
+    <row r="450">
+      <c r="D450" s="11"/>
+    </row>
+    <row r="451">
+      <c r="D451" s="11"/>
+    </row>
+    <row r="452">
+      <c r="D452" s="11"/>
+    </row>
+    <row r="453">
+      <c r="D453" s="11"/>
+    </row>
+    <row r="454">
+      <c r="D454" s="11"/>
+    </row>
+    <row r="455">
+      <c r="D455" s="11"/>
+    </row>
+    <row r="456">
+      <c r="D456" s="11"/>
+    </row>
+    <row r="457">
+      <c r="D457" s="11"/>
+    </row>
+    <row r="458">
+      <c r="D458" s="11"/>
+    </row>
+    <row r="459">
+      <c r="D459" s="11"/>
+    </row>
+    <row r="460">
+      <c r="D460" s="11"/>
+    </row>
+    <row r="461">
+      <c r="D461" s="11"/>
+    </row>
+    <row r="462">
+      <c r="D462" s="11"/>
+    </row>
+    <row r="463">
+      <c r="D463" s="11"/>
+    </row>
+    <row r="464">
+      <c r="D464" s="11"/>
+    </row>
+    <row r="465">
+      <c r="D465" s="11"/>
+    </row>
+    <row r="466">
+      <c r="D466" s="11"/>
+    </row>
+    <row r="467">
+      <c r="D467" s="11"/>
+    </row>
+    <row r="468">
+      <c r="D468" s="11"/>
+    </row>
+    <row r="469">
+      <c r="D469" s="11"/>
+    </row>
+    <row r="470">
+      <c r="D470" s="11"/>
+    </row>
+    <row r="471">
+      <c r="D471" s="11"/>
+    </row>
+    <row r="472">
+      <c r="D472" s="11"/>
+    </row>
+    <row r="473">
+      <c r="D473" s="11"/>
+    </row>
+    <row r="474">
+      <c r="D474" s="11"/>
+    </row>
+    <row r="475">
+      <c r="D475" s="11"/>
+    </row>
+    <row r="476">
+      <c r="D476" s="11"/>
+    </row>
+    <row r="477">
+      <c r="D477" s="11"/>
+    </row>
+    <row r="478">
+      <c r="D478" s="11"/>
+    </row>
+    <row r="479">
+      <c r="D479" s="11"/>
+    </row>
+    <row r="480">
+      <c r="D480" s="11"/>
+    </row>
+    <row r="481">
+      <c r="D481" s="11"/>
+    </row>
+    <row r="482">
+      <c r="D482" s="11"/>
+    </row>
+    <row r="483">
+      <c r="D483" s="11"/>
+    </row>
+    <row r="484">
+      <c r="D484" s="11"/>
+    </row>
+    <row r="485">
+      <c r="D485" s="11"/>
+    </row>
+    <row r="486">
+      <c r="D486" s="11"/>
+    </row>
+    <row r="487">
+      <c r="D487" s="11"/>
+    </row>
+    <row r="488">
+      <c r="D488" s="11"/>
+    </row>
+    <row r="489">
+      <c r="D489" s="11"/>
+    </row>
+    <row r="490">
+      <c r="D490" s="11"/>
+    </row>
+    <row r="491">
+      <c r="D491" s="11"/>
+    </row>
+    <row r="492">
+      <c r="D492" s="11"/>
+    </row>
+    <row r="493">
+      <c r="D493" s="11"/>
+    </row>
+    <row r="494">
+      <c r="D494" s="11"/>
+    </row>
+    <row r="495">
+      <c r="D495" s="11"/>
+    </row>
+    <row r="496">
+      <c r="D496" s="11"/>
+    </row>
+    <row r="497">
+      <c r="D497" s="11"/>
+    </row>
+    <row r="498">
+      <c r="D498" s="11"/>
+    </row>
+    <row r="499">
+      <c r="D499" s="11"/>
+    </row>
+    <row r="500">
+      <c r="D500" s="11"/>
+    </row>
+    <row r="501">
+      <c r="D501" s="11"/>
+    </row>
+    <row r="502">
+      <c r="D502" s="11"/>
+    </row>
+    <row r="503">
+      <c r="D503" s="11"/>
+    </row>
+    <row r="504">
+      <c r="D504" s="11"/>
+    </row>
+    <row r="505">
+      <c r="D505" s="11"/>
+    </row>
+    <row r="506">
+      <c r="D506" s="11"/>
+    </row>
+    <row r="507">
+      <c r="D507" s="11"/>
+    </row>
+    <row r="508">
+      <c r="D508" s="11"/>
+    </row>
+    <row r="509">
+      <c r="D509" s="11"/>
+    </row>
+    <row r="510">
+      <c r="D510" s="11"/>
+    </row>
+    <row r="511">
+      <c r="D511" s="11"/>
+    </row>
+    <row r="512">
+      <c r="D512" s="11"/>
+    </row>
+    <row r="513">
+      <c r="D513" s="11"/>
+    </row>
+    <row r="514">
+      <c r="D514" s="11"/>
+    </row>
+    <row r="515">
+      <c r="D515" s="11"/>
+    </row>
+    <row r="516">
+      <c r="D516" s="11"/>
+    </row>
+    <row r="517">
+      <c r="D517" s="11"/>
+    </row>
+    <row r="518">
+      <c r="D518" s="11"/>
+    </row>
+    <row r="519">
+      <c r="D519" s="11"/>
+    </row>
+    <row r="520">
+      <c r="D520" s="11"/>
+    </row>
+    <row r="521">
+      <c r="D521" s="11"/>
+    </row>
+    <row r="522">
+      <c r="D522" s="11"/>
+    </row>
+    <row r="523">
+      <c r="D523" s="11"/>
+    </row>
+    <row r="524">
+      <c r="D524" s="11"/>
+    </row>
+    <row r="525">
+      <c r="D525" s="11"/>
+    </row>
+    <row r="526">
+      <c r="D526" s="11"/>
+    </row>
+    <row r="527">
+      <c r="D527" s="11"/>
+    </row>
+    <row r="528">
+      <c r="D528" s="11"/>
+    </row>
+    <row r="529">
+      <c r="D529" s="11"/>
+    </row>
+    <row r="530">
+      <c r="D530" s="11"/>
+    </row>
+    <row r="531">
+      <c r="D531" s="11"/>
+    </row>
+    <row r="532">
+      <c r="D532" s="11"/>
+    </row>
+    <row r="533">
+      <c r="D533" s="11"/>
+    </row>
+    <row r="534">
+      <c r="D534" s="11"/>
+    </row>
+    <row r="535">
+      <c r="D535" s="11"/>
+    </row>
+    <row r="536">
+      <c r="D536" s="11"/>
+    </row>
+    <row r="537">
+      <c r="D537" s="11"/>
+    </row>
+    <row r="538">
+      <c r="D538" s="11"/>
+    </row>
+    <row r="539">
+      <c r="D539" s="11"/>
+    </row>
+    <row r="540">
+      <c r="D540" s="11"/>
+    </row>
+    <row r="541">
+      <c r="D541" s="11"/>
+    </row>
+    <row r="542">
+      <c r="D542" s="11"/>
+    </row>
+    <row r="543">
+      <c r="D543" s="11"/>
+    </row>
+    <row r="544">
+      <c r="D544" s="11"/>
+    </row>
+    <row r="545">
+      <c r="D545" s="11"/>
+    </row>
+    <row r="546">
+      <c r="D546" s="11"/>
+    </row>
+    <row r="547">
+      <c r="D547" s="11"/>
+    </row>
+    <row r="548">
+      <c r="D548" s="11"/>
+    </row>
+    <row r="549">
+      <c r="D549" s="11"/>
+    </row>
+    <row r="550">
+      <c r="D550" s="11"/>
+    </row>
+    <row r="551">
+      <c r="D551" s="11"/>
+    </row>
+    <row r="552">
+      <c r="D552" s="11"/>
+    </row>
+    <row r="553">
+      <c r="D553" s="11"/>
+    </row>
+    <row r="554">
+      <c r="D554" s="11"/>
+    </row>
+    <row r="555">
+      <c r="D555" s="11"/>
+    </row>
+    <row r="556">
+      <c r="D556" s="11"/>
+    </row>
+    <row r="557">
+      <c r="D557" s="11"/>
+    </row>
+    <row r="558">
+      <c r="D558" s="11"/>
+    </row>
+    <row r="559">
+      <c r="D559" s="11"/>
+    </row>
+    <row r="560">
+      <c r="D560" s="11"/>
+    </row>
+    <row r="561">
+      <c r="D561" s="11"/>
+    </row>
+    <row r="562">
+      <c r="D562" s="11"/>
+    </row>
+    <row r="563">
+      <c r="D563" s="11"/>
+    </row>
+    <row r="564">
+      <c r="D564" s="11"/>
+    </row>
+    <row r="565">
+      <c r="D565" s="11"/>
+    </row>
+    <row r="566">
+      <c r="D566" s="11"/>
+    </row>
+    <row r="567">
+      <c r="D567" s="11"/>
+    </row>
+    <row r="568">
+      <c r="D568" s="11"/>
+    </row>
+    <row r="569">
+      <c r="D569" s="11"/>
+    </row>
+    <row r="570">
+      <c r="D570" s="11"/>
+    </row>
+    <row r="571">
+      <c r="D571" s="11"/>
+    </row>
+    <row r="572">
+      <c r="D572" s="11"/>
+    </row>
+    <row r="573">
+      <c r="D573" s="11"/>
+    </row>
+    <row r="574">
+      <c r="D574" s="11"/>
+    </row>
+    <row r="575">
+      <c r="D575" s="11"/>
+    </row>
+    <row r="576">
+      <c r="D576" s="11"/>
+    </row>
+    <row r="577">
+      <c r="D577" s="11"/>
+    </row>
+    <row r="578">
+      <c r="D578" s="11"/>
+    </row>
+    <row r="579">
+      <c r="D579" s="11"/>
+    </row>
+    <row r="580">
+      <c r="D580" s="11"/>
+    </row>
+    <row r="581">
+      <c r="D581" s="11"/>
+    </row>
+    <row r="582">
+      <c r="D582" s="11"/>
+    </row>
+    <row r="583">
+      <c r="D583" s="11"/>
+    </row>
+    <row r="584">
+      <c r="D584" s="11"/>
+    </row>
+    <row r="585">
+      <c r="D585" s="11"/>
+    </row>
+    <row r="586">
+      <c r="D586" s="11"/>
+    </row>
+    <row r="587">
+      <c r="D587" s="11"/>
+    </row>
+    <row r="588">
+      <c r="D588" s="11"/>
+    </row>
+    <row r="589">
+      <c r="D589" s="11"/>
+    </row>
+    <row r="590">
+      <c r="D590" s="11"/>
+    </row>
+    <row r="591">
+      <c r="D591" s="11"/>
+    </row>
+    <row r="592">
+      <c r="D592" s="11"/>
+    </row>
+    <row r="593">
+      <c r="D593" s="11"/>
+    </row>
+    <row r="594">
+      <c r="D594" s="11"/>
+    </row>
+    <row r="595">
+      <c r="D595" s="11"/>
+    </row>
+    <row r="596">
+      <c r="D596" s="11"/>
+    </row>
+    <row r="597">
+      <c r="D597" s="11"/>
+    </row>
+    <row r="598">
+      <c r="D598" s="11"/>
+    </row>
+    <row r="599">
+      <c r="D599" s="11"/>
+    </row>
+    <row r="600">
+      <c r="D600" s="11"/>
+    </row>
+    <row r="601">
+      <c r="D601" s="11"/>
+    </row>
+    <row r="602">
+      <c r="D602" s="11"/>
+    </row>
+    <row r="603">
+      <c r="D603" s="11"/>
+    </row>
+    <row r="604">
+      <c r="D604" s="11"/>
+    </row>
+    <row r="605">
+      <c r="D605" s="11"/>
+    </row>
+    <row r="606">
+      <c r="D606" s="11"/>
+    </row>
+    <row r="607">
+      <c r="D607" s="11"/>
+    </row>
+    <row r="608">
+      <c r="D608" s="11"/>
+    </row>
+    <row r="609">
+      <c r="D609" s="11"/>
+    </row>
+    <row r="610">
+      <c r="D610" s="11"/>
+    </row>
+    <row r="611">
+      <c r="D611" s="11"/>
+    </row>
+    <row r="612">
+      <c r="D612" s="11"/>
+    </row>
+    <row r="613">
+      <c r="D613" s="11"/>
+    </row>
+    <row r="614">
+      <c r="D614" s="11"/>
+    </row>
+    <row r="615">
+      <c r="D615" s="11"/>
+    </row>
+    <row r="616">
+      <c r="D616" s="11"/>
+    </row>
+    <row r="617">
+      <c r="D617" s="11"/>
+    </row>
+    <row r="618">
+      <c r="D618" s="11"/>
+    </row>
+    <row r="619">
+      <c r="D619" s="11"/>
+    </row>
+    <row r="620">
+      <c r="D620" s="11"/>
+    </row>
+    <row r="621">
+      <c r="D621" s="11"/>
+    </row>
+    <row r="622">
+      <c r="D622" s="11"/>
+    </row>
+    <row r="623">
+      <c r="D623" s="11"/>
+    </row>
+    <row r="624">
+      <c r="D624" s="11"/>
+    </row>
+    <row r="625">
+      <c r="D625" s="11"/>
+    </row>
+    <row r="626">
+      <c r="D626" s="11"/>
+    </row>
+    <row r="627">
+      <c r="D627" s="11"/>
+    </row>
+    <row r="628">
+      <c r="D628" s="11"/>
+    </row>
+    <row r="629">
+      <c r="D629" s="11"/>
+    </row>
+    <row r="630">
+      <c r="D630" s="11"/>
+    </row>
+    <row r="631">
+      <c r="D631" s="11"/>
+    </row>
+    <row r="632">
+      <c r="D632" s="11"/>
+    </row>
+    <row r="633">
+      <c r="D633" s="11"/>
+    </row>
+    <row r="634">
+      <c r="D634" s="11"/>
+    </row>
+    <row r="635">
+      <c r="D635" s="11"/>
+    </row>
+    <row r="636">
+      <c r="D636" s="11"/>
+    </row>
+    <row r="637">
+      <c r="D637" s="11"/>
+    </row>
+    <row r="638">
+      <c r="D638" s="11"/>
+    </row>
+    <row r="639">
+      <c r="D639" s="11"/>
+    </row>
+    <row r="640">
+      <c r="D640" s="11"/>
+    </row>
+    <row r="641">
+      <c r="D641" s="11"/>
+    </row>
+    <row r="642">
+      <c r="D642" s="11"/>
+    </row>
+    <row r="643">
+      <c r="D643" s="11"/>
+    </row>
+    <row r="644">
+      <c r="D644" s="11"/>
+    </row>
+    <row r="645">
+      <c r="D645" s="11"/>
+    </row>
+    <row r="646">
+      <c r="D646" s="11"/>
+    </row>
+    <row r="647">
+      <c r="D647" s="11"/>
+    </row>
+    <row r="648">
+      <c r="D648" s="11"/>
+    </row>
+    <row r="649">
+      <c r="D649" s="11"/>
+    </row>
+    <row r="650">
+      <c r="D650" s="11"/>
+    </row>
+    <row r="651">
+      <c r="D651" s="11"/>
+    </row>
+    <row r="652">
+      <c r="D652" s="11"/>
+    </row>
+    <row r="653">
+      <c r="D653" s="11"/>
+    </row>
+    <row r="654">
+      <c r="D654" s="11"/>
+    </row>
+    <row r="655">
+      <c r="D655" s="11"/>
+    </row>
+    <row r="656">
+      <c r="D656" s="11"/>
+    </row>
+    <row r="657">
+      <c r="D657" s="11"/>
+    </row>
+    <row r="658">
+      <c r="D658" s="11"/>
+    </row>
+    <row r="659">
+      <c r="D659" s="11"/>
+    </row>
+    <row r="660">
+      <c r="D660" s="11"/>
+    </row>
+    <row r="661">
+      <c r="D661" s="11"/>
+    </row>
+    <row r="662">
+      <c r="D662" s="11"/>
+    </row>
+    <row r="663">
+      <c r="D663" s="11"/>
+    </row>
+    <row r="664">
+      <c r="D664" s="11"/>
+    </row>
+    <row r="665">
+      <c r="D665" s="11"/>
+    </row>
+    <row r="666">
+      <c r="D666" s="11"/>
+    </row>
+    <row r="667">
+      <c r="D667" s="11"/>
+    </row>
+    <row r="668">
+      <c r="D668" s="11"/>
+    </row>
+    <row r="669">
+      <c r="D669" s="11"/>
+    </row>
+    <row r="670">
+      <c r="D670" s="11"/>
+    </row>
+    <row r="671">
+      <c r="D671" s="11"/>
+    </row>
+    <row r="672">
+      <c r="D672" s="11"/>
+    </row>
+    <row r="673">
+      <c r="D673" s="11"/>
+    </row>
+    <row r="674">
+      <c r="D674" s="11"/>
+    </row>
+    <row r="675">
+      <c r="D675" s="11"/>
+    </row>
+    <row r="676">
+      <c r="D676" s="11"/>
+    </row>
+    <row r="677">
+      <c r="D677" s="11"/>
+    </row>
+    <row r="678">
+      <c r="D678" s="11"/>
+    </row>
+    <row r="679">
+      <c r="D679" s="11"/>
+    </row>
+    <row r="680">
+      <c r="D680" s="11"/>
+    </row>
+    <row r="681">
+      <c r="D681" s="11"/>
+    </row>
+    <row r="682">
+      <c r="D682" s="11"/>
+    </row>
+    <row r="683">
+      <c r="D683" s="11"/>
+    </row>
+    <row r="684">
+      <c r="D684" s="11"/>
+    </row>
+    <row r="685">
+      <c r="D685" s="11"/>
+    </row>
+    <row r="686">
+      <c r="D686" s="11"/>
+    </row>
+    <row r="687">
+      <c r="D687" s="11"/>
+    </row>
+    <row r="688">
+      <c r="D688" s="11"/>
+    </row>
+    <row r="689">
+      <c r="D689" s="11"/>
+    </row>
+    <row r="690">
+      <c r="D690" s="11"/>
+    </row>
+    <row r="691">
+      <c r="D691" s="11"/>
+    </row>
+    <row r="692">
+      <c r="D692" s="11"/>
+    </row>
+    <row r="693">
+      <c r="D693" s="11"/>
+    </row>
+    <row r="694">
+      <c r="D694" s="11"/>
+    </row>
+    <row r="695">
+      <c r="D695" s="11"/>
+    </row>
+    <row r="696">
+      <c r="D696" s="11"/>
+    </row>
+    <row r="697">
+      <c r="D697" s="11"/>
+    </row>
+    <row r="698">
+      <c r="D698" s="11"/>
+    </row>
+    <row r="699">
+      <c r="D699" s="11"/>
+    </row>
+    <row r="700">
+      <c r="D700" s="11"/>
+    </row>
+    <row r="701">
+      <c r="D701" s="11"/>
+    </row>
+    <row r="702">
+      <c r="D702" s="11"/>
+    </row>
+    <row r="703">
+      <c r="D703" s="11"/>
+    </row>
+    <row r="704">
+      <c r="D704" s="11"/>
+    </row>
+    <row r="705">
+      <c r="D705" s="11"/>
+    </row>
+    <row r="706">
+      <c r="D706" s="11"/>
+    </row>
+    <row r="707">
+      <c r="D707" s="11"/>
+    </row>
+    <row r="708">
+      <c r="D708" s="11"/>
+    </row>
+    <row r="709">
+      <c r="D709" s="11"/>
+    </row>
+    <row r="710">
+      <c r="D710" s="11"/>
+    </row>
+    <row r="711">
+      <c r="D711" s="11"/>
+    </row>
+    <row r="712">
+      <c r="D712" s="11"/>
+    </row>
+    <row r="713">
+      <c r="D713" s="11"/>
+    </row>
+    <row r="714">
+      <c r="D714" s="11"/>
+    </row>
+    <row r="715">
+      <c r="D715" s="11"/>
+    </row>
+    <row r="716">
+      <c r="D716" s="11"/>
+    </row>
+    <row r="717">
+      <c r="D717" s="11"/>
+    </row>
+    <row r="718">
+      <c r="D718" s="11"/>
+    </row>
+    <row r="719">
+      <c r="D719" s="11"/>
+    </row>
+    <row r="720">
+      <c r="D720" s="11"/>
+    </row>
+    <row r="721">
+      <c r="D721" s="11"/>
+    </row>
+    <row r="722">
+      <c r="D722" s="11"/>
+    </row>
+    <row r="723">
+      <c r="D723" s="11"/>
+    </row>
+    <row r="724">
+      <c r="D724" s="11"/>
+    </row>
+    <row r="725">
+      <c r="D725" s="11"/>
+    </row>
+    <row r="726">
+      <c r="D726" s="11"/>
+    </row>
+    <row r="727">
+      <c r="D727" s="11"/>
+    </row>
+    <row r="728">
+      <c r="D728" s="11"/>
+    </row>
+    <row r="729">
+      <c r="D729" s="11"/>
+    </row>
+    <row r="730">
+      <c r="D730" s="11"/>
+    </row>
+    <row r="731">
+      <c r="D731" s="11"/>
+    </row>
+    <row r="732">
+      <c r="D732" s="11"/>
+    </row>
+    <row r="733">
+      <c r="D733" s="11"/>
+    </row>
+    <row r="734">
+      <c r="D734" s="11"/>
+    </row>
+    <row r="735">
+      <c r="D735" s="11"/>
+    </row>
+    <row r="736">
+      <c r="D736" s="11"/>
+    </row>
+    <row r="737">
+      <c r="D737" s="11"/>
+    </row>
+    <row r="738">
+      <c r="D738" s="11"/>
+    </row>
+    <row r="739">
+      <c r="D739" s="11"/>
+    </row>
+    <row r="740">
+      <c r="D740" s="11"/>
+    </row>
+    <row r="741">
+      <c r="D741" s="11"/>
+    </row>
+    <row r="742">
+      <c r="D742" s="11"/>
+    </row>
+    <row r="743">
+      <c r="D743" s="11"/>
+    </row>
+    <row r="744">
+      <c r="D744" s="11"/>
+    </row>
+    <row r="745">
+      <c r="D745" s="11"/>
+    </row>
+    <row r="746">
+      <c r="D746" s="11"/>
+    </row>
+    <row r="747">
+      <c r="D747" s="11"/>
+    </row>
+    <row r="748">
+      <c r="D748" s="11"/>
+    </row>
+    <row r="749">
+      <c r="D749" s="11"/>
+    </row>
+    <row r="750">
+      <c r="D750" s="11"/>
+    </row>
+    <row r="751">
+      <c r="D751" s="11"/>
+    </row>
+    <row r="752">
+      <c r="D752" s="11"/>
+    </row>
+    <row r="753">
+      <c r="D753" s="11"/>
+    </row>
+    <row r="754">
+      <c r="D754" s="11"/>
+    </row>
+    <row r="755">
+      <c r="D755" s="11"/>
+    </row>
+    <row r="756">
+      <c r="D756" s="11"/>
+    </row>
+    <row r="757">
+      <c r="D757" s="11"/>
+    </row>
+    <row r="758">
+      <c r="D758" s="11"/>
+    </row>
+    <row r="759">
+      <c r="D759" s="11"/>
+    </row>
+    <row r="760">
+      <c r="D760" s="11"/>
+    </row>
+    <row r="761">
+      <c r="D761" s="11"/>
+    </row>
+    <row r="762">
+      <c r="D762" s="11"/>
+    </row>
+    <row r="763">
+      <c r="D763" s="11"/>
+    </row>
+    <row r="764">
+      <c r="D764" s="11"/>
+    </row>
+    <row r="765">
+      <c r="D765" s="11"/>
+    </row>
+    <row r="766">
+      <c r="D766" s="11"/>
+    </row>
+    <row r="767">
+      <c r="D767" s="11"/>
+    </row>
+    <row r="768">
+      <c r="D768" s="11"/>
+    </row>
+    <row r="769">
+      <c r="D769" s="11"/>
+    </row>
+    <row r="770">
+      <c r="D770" s="11"/>
+    </row>
+    <row r="771">
+      <c r="D771" s="11"/>
+    </row>
+    <row r="772">
+      <c r="D772" s="11"/>
+    </row>
+    <row r="773">
+      <c r="D773" s="11"/>
+    </row>
+    <row r="774">
+      <c r="D774" s="11"/>
+    </row>
+    <row r="775">
+      <c r="D775" s="11"/>
+    </row>
+    <row r="776">
+      <c r="D776" s="11"/>
+    </row>
+    <row r="777">
+      <c r="D777" s="11"/>
+    </row>
+    <row r="778">
+      <c r="D778" s="11"/>
+    </row>
+    <row r="779">
+      <c r="D779" s="11"/>
+    </row>
+    <row r="780">
+      <c r="D780" s="11"/>
+    </row>
+    <row r="781">
+      <c r="D781" s="11"/>
+    </row>
+    <row r="782">
+      <c r="D782" s="11"/>
+    </row>
+    <row r="783">
+      <c r="D783" s="11"/>
+    </row>
+    <row r="784">
+      <c r="D784" s="11"/>
+    </row>
+    <row r="785">
+      <c r="D785" s="11"/>
+    </row>
+    <row r="786">
+      <c r="D786" s="11"/>
+    </row>
+    <row r="787">
+      <c r="D787" s="11"/>
+    </row>
+    <row r="788">
+      <c r="D788" s="11"/>
+    </row>
+    <row r="789">
+      <c r="D789" s="11"/>
+    </row>
+    <row r="790">
+      <c r="D790" s="11"/>
+    </row>
+    <row r="791">
+      <c r="D791" s="11"/>
+    </row>
+    <row r="792">
+      <c r="D792" s="11"/>
+    </row>
+    <row r="793">
+      <c r="D793" s="11"/>
+    </row>
+    <row r="794">
+      <c r="D794" s="11"/>
+    </row>
+    <row r="795">
+      <c r="D795" s="11"/>
+    </row>
+    <row r="796">
+      <c r="D796" s="11"/>
+    </row>
+    <row r="797">
+      <c r="D797" s="11"/>
+    </row>
+    <row r="798">
+      <c r="D798" s="11"/>
+    </row>
+    <row r="799">
+      <c r="D799" s="11"/>
+    </row>
+    <row r="800">
+      <c r="D800" s="11"/>
+    </row>
+    <row r="801">
+      <c r="D801" s="11"/>
+    </row>
+    <row r="802">
+      <c r="D802" s="11"/>
+    </row>
+    <row r="803">
+      <c r="D803" s="11"/>
+    </row>
+    <row r="804">
+      <c r="D804" s="11"/>
+    </row>
+    <row r="805">
+      <c r="D805" s="11"/>
+    </row>
+    <row r="806">
+      <c r="D806" s="11"/>
+    </row>
+    <row r="807">
+      <c r="D807" s="11"/>
+    </row>
+    <row r="808">
+      <c r="D808" s="11"/>
+    </row>
+    <row r="809">
+      <c r="D809" s="11"/>
+    </row>
+    <row r="810">
+      <c r="D810" s="11"/>
+    </row>
+    <row r="811">
+      <c r="D811" s="11"/>
+    </row>
+    <row r="812">
+      <c r="D812" s="11"/>
+    </row>
+    <row r="813">
+      <c r="D813" s="11"/>
+    </row>
+    <row r="814">
+      <c r="D814" s="11"/>
+    </row>
+    <row r="815">
+      <c r="D815" s="11"/>
+    </row>
+    <row r="816">
+      <c r="D816" s="11"/>
+    </row>
+    <row r="817">
+      <c r="D817" s="11"/>
+    </row>
+    <row r="818">
+      <c r="D818" s="11"/>
+    </row>
+    <row r="819">
+      <c r="D819" s="11"/>
+    </row>
+    <row r="820">
+      <c r="D820" s="11"/>
+    </row>
+    <row r="821">
+      <c r="D821" s="11"/>
+    </row>
+    <row r="822">
+      <c r="D822" s="11"/>
+    </row>
+    <row r="823">
+      <c r="D823" s="11"/>
+    </row>
+    <row r="824">
+      <c r="D824" s="11"/>
+    </row>
+    <row r="825">
+      <c r="D825" s="11"/>
+    </row>
+    <row r="826">
+      <c r="D826" s="11"/>
+    </row>
+    <row r="827">
+      <c r="D827" s="11"/>
+    </row>
+    <row r="828">
+      <c r="D828" s="11"/>
+    </row>
+    <row r="829">
+      <c r="D829" s="11"/>
+    </row>
+    <row r="830">
+      <c r="D830" s="11"/>
+    </row>
+    <row r="831">
+      <c r="D831" s="11"/>
+    </row>
+    <row r="832">
+      <c r="D832" s="11"/>
+    </row>
+    <row r="833">
+      <c r="D833" s="11"/>
+    </row>
+    <row r="834">
+      <c r="D834" s="11"/>
+    </row>
+    <row r="835">
+      <c r="D835" s="11"/>
+    </row>
+    <row r="836">
+      <c r="D836" s="11"/>
+    </row>
+    <row r="837">
+      <c r="D837" s="11"/>
+    </row>
+    <row r="838">
+      <c r="D838" s="11"/>
+    </row>
+    <row r="839">
+      <c r="D839" s="11"/>
+    </row>
+    <row r="840">
+      <c r="D840" s="11"/>
+    </row>
+    <row r="841">
+      <c r="D841" s="11"/>
+    </row>
+    <row r="842">
+      <c r="D842" s="11"/>
+    </row>
+    <row r="843">
+      <c r="D843" s="11"/>
+    </row>
+    <row r="844">
+      <c r="D844" s="11"/>
+    </row>
+    <row r="845">
+      <c r="D845" s="11"/>
+    </row>
+    <row r="846">
+      <c r="D846" s="11"/>
+    </row>
+    <row r="847">
+      <c r="D847" s="11"/>
+    </row>
+    <row r="848">
+      <c r="D848" s="11"/>
+    </row>
+    <row r="849">
+      <c r="D849" s="11"/>
+    </row>
+    <row r="850">
+      <c r="D850" s="11"/>
+    </row>
+    <row r="851">
+      <c r="D851" s="11"/>
+    </row>
+    <row r="852">
+      <c r="D852" s="11"/>
+    </row>
+    <row r="853">
+      <c r="D853" s="11"/>
+    </row>
+    <row r="854">
+      <c r="D854" s="11"/>
+    </row>
+    <row r="855">
+      <c r="D855" s="11"/>
+    </row>
+    <row r="856">
+      <c r="D856" s="11"/>
+    </row>
+    <row r="857">
+      <c r="D857" s="11"/>
+    </row>
+    <row r="858">
+      <c r="D858" s="11"/>
+    </row>
+    <row r="859">
+      <c r="D859" s="11"/>
+    </row>
+    <row r="860">
+      <c r="D860" s="11"/>
+    </row>
+    <row r="861">
+      <c r="D861" s="11"/>
+    </row>
+    <row r="862">
+      <c r="D862" s="11"/>
+    </row>
+    <row r="863">
+      <c r="D863" s="11"/>
+    </row>
+    <row r="864">
+      <c r="D864" s="11"/>
+    </row>
+    <row r="865">
+      <c r="D865" s="11"/>
+    </row>
+    <row r="866">
+      <c r="D866" s="11"/>
+    </row>
+    <row r="867">
+      <c r="D867" s="11"/>
+    </row>
+    <row r="868">
+      <c r="D868" s="11"/>
+    </row>
+    <row r="869">
+      <c r="D869" s="11"/>
+    </row>
+    <row r="870">
+      <c r="D870" s="11"/>
+    </row>
+    <row r="871">
+      <c r="D871" s="11"/>
+    </row>
+    <row r="872">
+      <c r="D872" s="11"/>
+    </row>
+    <row r="873">
+      <c r="D873" s="11"/>
+    </row>
+    <row r="874">
+      <c r="D874" s="11"/>
+    </row>
+    <row r="875">
+      <c r="D875" s="11"/>
+    </row>
+    <row r="876">
+      <c r="D876" s="11"/>
+    </row>
+    <row r="877">
+      <c r="D877" s="11"/>
+    </row>
+    <row r="878">
+      <c r="D878" s="11"/>
+    </row>
+    <row r="879">
+      <c r="D879" s="11"/>
+    </row>
+    <row r="880">
+      <c r="D880" s="11"/>
+    </row>
+    <row r="881">
+      <c r="D881" s="11"/>
+    </row>
+    <row r="882">
+      <c r="D882" s="11"/>
+    </row>
+    <row r="883">
+      <c r="D883" s="11"/>
+    </row>
+    <row r="884">
+      <c r="D884" s="11"/>
+    </row>
+    <row r="885">
+      <c r="D885" s="11"/>
+    </row>
+    <row r="886">
+      <c r="D886" s="11"/>
+    </row>
+    <row r="887">
+      <c r="D887" s="11"/>
+    </row>
+    <row r="888">
+      <c r="D888" s="11"/>
+    </row>
+    <row r="889">
+      <c r="D889" s="11"/>
+    </row>
+    <row r="890">
+      <c r="D890" s="11"/>
+    </row>
+    <row r="891">
+      <c r="D891" s="11"/>
+    </row>
+    <row r="892">
+      <c r="D892" s="11"/>
+    </row>
+    <row r="893">
+      <c r="D893" s="11"/>
+    </row>
+    <row r="894">
+      <c r="D894" s="11"/>
+    </row>
+    <row r="895">
+      <c r="D895" s="11"/>
+    </row>
+    <row r="896">
+      <c r="D896" s="11"/>
+    </row>
+    <row r="897">
+      <c r="D897" s="11"/>
+    </row>
+    <row r="898">
+      <c r="D898" s="11"/>
+    </row>
+    <row r="899">
+      <c r="D899" s="11"/>
+    </row>
+    <row r="900">
+      <c r="D900" s="11"/>
+    </row>
+    <row r="901">
+      <c r="D901" s="11"/>
+    </row>
+    <row r="902">
+      <c r="D902" s="11"/>
+    </row>
+    <row r="903">
+      <c r="D903" s="11"/>
+    </row>
+    <row r="904">
+      <c r="D904" s="11"/>
+    </row>
+    <row r="905">
+      <c r="D905" s="11"/>
+    </row>
+    <row r="906">
+      <c r="D906" s="11"/>
+    </row>
+    <row r="907">
+      <c r="D907" s="11"/>
+    </row>
+    <row r="908">
+      <c r="D908" s="11"/>
+    </row>
+    <row r="909">
+      <c r="D909" s="11"/>
+    </row>
+    <row r="910">
+      <c r="D910" s="11"/>
+    </row>
+    <row r="911">
+      <c r="D911" s="11"/>
+    </row>
+    <row r="912">
+      <c r="D912" s="11"/>
+    </row>
+    <row r="913">
+      <c r="D913" s="11"/>
+    </row>
+    <row r="914">
+      <c r="D914" s="11"/>
+    </row>
+    <row r="915">
+      <c r="D915" s="11"/>
+    </row>
+    <row r="916">
+      <c r="D916" s="11"/>
+    </row>
+    <row r="917">
+      <c r="D917" s="11"/>
+    </row>
+    <row r="918">
+      <c r="D918" s="11"/>
+    </row>
+    <row r="919">
+      <c r="D919" s="11"/>
+    </row>
+    <row r="920">
+      <c r="D920" s="11"/>
+    </row>
+    <row r="921">
+      <c r="D921" s="11"/>
+    </row>
+    <row r="922">
+      <c r="D922" s="11"/>
+    </row>
+    <row r="923">
+      <c r="D923" s="11"/>
+    </row>
+    <row r="924">
+      <c r="D924" s="11"/>
+    </row>
+    <row r="925">
+      <c r="D925" s="11"/>
+    </row>
+    <row r="926">
+      <c r="D926" s="11"/>
+    </row>
+    <row r="927">
+      <c r="D927" s="11"/>
+    </row>
+    <row r="928">
+      <c r="D928" s="11"/>
+    </row>
+    <row r="929">
+      <c r="D929" s="11"/>
+    </row>
+    <row r="930">
+      <c r="D930" s="11"/>
+    </row>
+    <row r="931">
+      <c r="D931" s="11"/>
+    </row>
+    <row r="932">
+      <c r="D932" s="11"/>
+    </row>
+    <row r="933">
+      <c r="D933" s="11"/>
+    </row>
+    <row r="934">
+      <c r="D934" s="11"/>
+    </row>
+    <row r="935">
+      <c r="D935" s="11"/>
+    </row>
+    <row r="936">
+      <c r="D936" s="11"/>
+    </row>
+    <row r="937">
+      <c r="D937" s="11"/>
+    </row>
+    <row r="938">
+      <c r="D938" s="11"/>
+    </row>
+    <row r="939">
+      <c r="D939" s="11"/>
+    </row>
+    <row r="940">
+      <c r="D940" s="11"/>
+    </row>
+    <row r="941">
+      <c r="D941" s="11"/>
+    </row>
+    <row r="942">
+      <c r="D942" s="11"/>
+    </row>
+    <row r="943">
+      <c r="D943" s="11"/>
+    </row>
+    <row r="944">
+      <c r="D944" s="11"/>
+    </row>
+    <row r="945">
+      <c r="D945" s="11"/>
+    </row>
+    <row r="946">
+      <c r="D946" s="11"/>
+    </row>
+    <row r="947">
+      <c r="D947" s="11"/>
+    </row>
+    <row r="948">
+      <c r="D948" s="11"/>
+    </row>
+    <row r="949">
+      <c r="D949" s="11"/>
+    </row>
+    <row r="950">
+      <c r="D950" s="11"/>
+    </row>
+    <row r="951">
+      <c r="D951" s="11"/>
+    </row>
+    <row r="952">
+      <c r="D952" s="11"/>
+    </row>
+    <row r="953">
+      <c r="D953" s="11"/>
+    </row>
+    <row r="954">
+      <c r="D954" s="11"/>
+    </row>
+    <row r="955">
+      <c r="D955" s="11"/>
+    </row>
+    <row r="956">
+      <c r="D956" s="11"/>
+    </row>
+    <row r="957">
+      <c r="D957" s="11"/>
+    </row>
+    <row r="958">
+      <c r="D958" s="11"/>
+    </row>
+    <row r="959">
+      <c r="D959" s="11"/>
+    </row>
+    <row r="960">
+      <c r="D960" s="11"/>
+    </row>
+    <row r="961">
+      <c r="D961" s="11"/>
+    </row>
+    <row r="962">
+      <c r="D962" s="11"/>
+    </row>
+    <row r="963">
+      <c r="D963" s="11"/>
+    </row>
+    <row r="964">
+      <c r="D964" s="11"/>
+    </row>
+    <row r="965">
+      <c r="D965" s="11"/>
+    </row>
+    <row r="966">
+      <c r="D966" s="11"/>
+    </row>
+    <row r="967">
+      <c r="D967" s="11"/>
+    </row>
+    <row r="968">
+      <c r="D968" s="11"/>
+    </row>
+    <row r="969">
+      <c r="D969" s="11"/>
+    </row>
+    <row r="970">
+      <c r="D970" s="11"/>
+    </row>
+    <row r="971">
+      <c r="D971" s="11"/>
+    </row>
+    <row r="972">
+      <c r="D972" s="11"/>
+    </row>
+    <row r="973">
+      <c r="D973" s="11"/>
+    </row>
+    <row r="974">
+      <c r="D974" s="11"/>
+    </row>
+    <row r="975">
+      <c r="D975" s="11"/>
+    </row>
+    <row r="976">
+      <c r="D976" s="11"/>
+    </row>
+    <row r="977">
+      <c r="D977" s="11"/>
+    </row>
+    <row r="978">
+      <c r="D978" s="11"/>
+    </row>
+    <row r="979">
+      <c r="D979" s="11"/>
+    </row>
+    <row r="980">
+      <c r="D980" s="11"/>
+    </row>
+    <row r="981">
+      <c r="D981" s="11"/>
+    </row>
+    <row r="982">
+      <c r="D982" s="11"/>
+    </row>
+    <row r="983">
+      <c r="D983" s="11"/>
+    </row>
+    <row r="984">
+      <c r="D984" s="11"/>
+    </row>
+    <row r="985">
+      <c r="D985" s="11"/>
+    </row>
+    <row r="986">
+      <c r="D986" s="11"/>
+    </row>
+    <row r="987">
+      <c r="D987" s="11"/>
+    </row>
+    <row r="988">
+      <c r="D988" s="11"/>
+    </row>
+    <row r="989">
+      <c r="D989" s="11"/>
+    </row>
+    <row r="990">
+      <c r="D990" s="11"/>
+    </row>
+    <row r="991">
+      <c r="D991" s="11"/>
+    </row>
+    <row r="992">
+      <c r="D992" s="11"/>
+    </row>
+    <row r="993">
+      <c r="D993" s="11"/>
+    </row>
+    <row r="994">
+      <c r="D994" s="11"/>
+    </row>
+    <row r="995">
+      <c r="D995" s="11"/>
+    </row>
+    <row r="996">
+      <c r="D996" s="11"/>
+    </row>
+    <row r="997">
+      <c r="D997" s="11"/>
+    </row>
+    <row r="998">
+      <c r="D998" s="11"/>
+    </row>
+    <row r="999">
+      <c r="D999" s="11"/>
+    </row>
+    <row r="1000">
+      <c r="D1000" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId1" ref="C2"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
